--- a/results/region_genre_12_simul.xlsx
+++ b/results/region_genre_12_simul.xlsx
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65727.1863</v>
+        <v>48803.4101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0024</v>
+        <v>0.9</v>
       </c>
       <c r="H2" t="n">
-        <v>11634.7235</v>
+        <v>-67396.4754</v>
       </c>
       <c r="I2" t="n">
-        <v>119819.6491</v>
+        <v>165003.2957</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-37471.4829</v>
+        <v>-142744.2518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6343</v>
+        <v>0.0035</v>
       </c>
       <c r="H3" t="n">
-        <v>-91563.9457</v>
+        <v>-262706.8821</v>
       </c>
       <c r="I3" t="n">
-        <v>16620.9799</v>
+        <v>-22781.6215</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23265.2091</v>
+        <v>-21392.7611</v>
       </c>
       <c r="G4" t="n">
         <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>-30827.2537</v>
+        <v>-139166.5123</v>
       </c>
       <c r="I4" t="n">
-        <v>77357.6719</v>
+        <v>96380.99000000001</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-103198.6692</v>
+        <v>-191547.6619</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>-157291.132</v>
+        <v>-295926.8303</v>
       </c>
       <c r="I5" t="n">
-        <v>-49106.2064</v>
+        <v>-87168.4936</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-42461.9772</v>
+        <v>-70196.1713</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3997</v>
+        <v>0.6429</v>
       </c>
       <c r="H6" t="n">
-        <v>-96554.44</v>
+        <v>-172052.1214</v>
       </c>
       <c r="I6" t="n">
-        <v>11630.4856</v>
+        <v>31659.7789</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60736.692</v>
+        <v>121351.4907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0097</v>
+        <v>0.0072</v>
       </c>
       <c r="H7" t="n">
-        <v>6644.2292</v>
+        <v>15223.0126</v>
       </c>
       <c r="I7" t="n">
-        <v>114829.1548</v>
+        <v>227479.9687</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
